--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Respiratory Rate</t>
+    <t>RS Observation - Respiratory Rate</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Respiratory Rate</t>
+    <t>Road Safety Observation - Respiratory Rate</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Respiratory Rate</t>
+    <t>RS Observation - Respiratory Rate</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,6 +746,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="86290005"/&gt;
+  &lt;display value="Respiratory rate (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -753,136 +760,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>86290005</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Respiratory rate (observable entity)</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1566,6 +1443,10 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1636,6 +1517,134 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm</t>
+  </si>
+  <si>
+    <t>respiratory-rhythm</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.id</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.code</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="248582003"/&gt;
+  &lt;display value="Rhythm of respiration (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-RR-Rhythm</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:respiratory-rhythm.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds</t>
+  </si>
+  <si>
+    <t>breath-sounds</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.id</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.code</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="52653008"/&gt;
+  &lt;display value="Respiratory sounds (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-RR-BreathSounds</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:breath-sounds.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1972,9 +1981,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1997,7 +2006,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.71484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4234,7 +4243,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>83</v>
@@ -4276,7 +4285,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4297,10 +4306,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4311,10 +4320,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4334,19 +4343,23 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4406,7 +4419,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4415,10 +4428,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4427,46 +4440,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4502,46 +4517,46 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4549,10 +4564,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4563,7 +4578,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4575,26 +4590,24 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4636,13 +4649,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4657,28 +4670,28 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4688,7 +4701,7 @@
         <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
@@ -4697,18 +4710,20 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4756,7 +4771,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4771,34 +4786,34 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4808,7 +4823,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4817,17 +4832,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4837,7 +4854,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4876,7 +4893,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4891,19 +4908,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4911,10 +4928,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4937,18 +4954,18 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4957,7 +4974,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4996,7 +5013,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5017,13 +5034,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5031,10 +5048,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5045,7 +5062,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -5057,19 +5074,17 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5118,13 +5133,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5133,19 +5148,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5153,10 +5168,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5164,7 +5179,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>94</v>
@@ -5179,19 +5194,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5228,19 +5243,17 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5249,7 +5262,7 @@
         <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5258,29 +5271,31 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5301,19 +5316,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5362,7 +5377,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5371,36 +5386,36 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5411,7 +5426,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5420,21 +5435,23 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5458,13 +5475,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5482,16 +5499,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5503,59 +5520,59 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5580,13 +5597,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5604,13 +5621,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5619,65 +5636,65 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5726,13 +5743,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5741,19 +5758,19 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5761,10 +5778,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5784,19 +5801,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5822,13 +5839,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5846,7 +5863,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5864,27 +5881,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5895,7 +5912,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5904,20 +5921,22 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5942,13 +5961,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5966,13 +5985,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -5981,19 +6000,19 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -6001,10 +6020,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6012,7 +6031,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>94</v>
@@ -6024,23 +6043,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6076,17 +6093,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6095,7 +6114,7 @@
         <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>106</v>
@@ -6104,65 +6123,61 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6210,7 +6225,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6219,7 +6234,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6228,27 +6243,27 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6259,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6271,19 +6286,19 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6308,13 +6323,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6332,19 +6347,19 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6353,10 +6368,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>137</v>
+        <v>390</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6367,21 +6382,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6393,20 +6408,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6430,13 +6441,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6454,49 +6465,49 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6515,20 +6526,18 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6576,7 +6585,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6588,7 +6597,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6597,10 +6606,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>387</v>
+        <v>221</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6611,44 +6620,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6672,13 +6683,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6696,45 +6707,45 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6757,20 +6768,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O40" t="s" s="2">
         <v>402</v>
       </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6794,13 +6801,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6818,7 +6825,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6827,7 +6834,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6839,10 +6846,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6853,10 +6860,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6879,17 +6886,15 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6938,7 +6943,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6947,7 +6952,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6956,27 +6961,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6999,18 +7004,20 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>417</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7034,13 +7041,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7058,7 +7065,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7076,27 +7083,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7119,19 +7126,19 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>426</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7156,13 +7163,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7180,7 +7187,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7192,19 +7199,19 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>431</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7215,10 +7222,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7241,16 +7248,18 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>217</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7298,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7310,7 +7319,7 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7322,7 +7331,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>221</v>
+        <v>431</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7333,21 +7342,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7359,17 +7368,15 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7418,19 +7425,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7439,10 +7446,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7460,7 +7467,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7473,13 +7480,13 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>438</v>
@@ -7488,11 +7495,9 @@
         <v>439</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7552,7 +7557,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7561,10 +7566,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>137</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7575,10 +7580,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7589,7 +7594,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7598,18 +7603,20 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7658,16 +7665,16 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7679,10 +7686,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7693,10 +7700,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7707,28 +7714,32 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7764,28 +7775,26 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7797,10 +7806,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7811,10 +7820,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7837,20 +7846,16 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>453</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7874,13 +7879,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7898,7 +7903,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7910,19 +7915,19 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7933,14 +7938,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7959,20 +7964,18 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>462</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -7996,13 +7999,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>467</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8020,7 +8023,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>461</v>
+        <v>227</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8032,19 +8035,19 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8055,43 +8058,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>472</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8140,19 +8145,19 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8164,7 +8169,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8175,10 +8180,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8186,7 +8191,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8198,19 +8203,23 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8234,13 +8243,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8258,10 +8267,10 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>94</v>
@@ -8276,16 +8285,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>446</v>
+        <v>212</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8293,10 +8302,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8307,7 +8316,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8319,18 +8328,20 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>481</v>
+        <v>304</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8378,13 +8389,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8396,27 +8407,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>483</v>
+        <v>311</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>484</v>
+        <v>312</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8427,7 +8438,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8436,21 +8447,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>486</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8474,13 +8487,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8498,16 +8511,16 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8519,10 +8532,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>483</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>490</v>
+        <v>325</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8533,14 +8546,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8556,22 +8569,22 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>493</v>
+        <v>329</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>495</v>
+        <v>331</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8596,13 +8609,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8620,7 +8633,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8638,27 +8651,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>496</v>
+        <v>335</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>497</v>
+        <v>336</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8669,7 +8682,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8681,16 +8694,20 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>476</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8738,19 +8755,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8759,10 +8776,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8773,21 +8790,23 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -8796,21 +8815,23 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>141</v>
+        <v>450</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8858,7 +8879,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8870,7 +8891,7 @@
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
@@ -8879,10 +8900,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8893,46 +8914,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>438</v>
+        <v>218</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -8980,19 +8997,19 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9004,7 +9021,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9015,21 +9032,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9038,23 +9055,21 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>502</v>
+        <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>503</v>
+        <v>223</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9078,13 +9093,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9102,34 +9117,34 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>501</v>
+        <v>227</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>83</v>
@@ -9137,45 +9152,45 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>507</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>508</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>509</v>
+        <v>143</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9224,45 +9239,45 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>506</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>355</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9270,7 +9285,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>94</v>
@@ -9282,22 +9297,22 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9322,13 +9337,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>365</v>
+        <v>209</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9346,16 +9361,16 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>106</v>
@@ -9364,16 +9379,16 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9381,21 +9396,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9407,20 +9422,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9444,13 +9455,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9468,49 +9479,49 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>220</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9529,20 +9540,18 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>518</v>
+        <v>223</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9578,19 +9587,19 @@
         <v>83</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>516</v>
+        <v>227</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9602,29 +9611,2577 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP63" t="s" s="2">
+      <c r="AK64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AC66" s="2"/>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y81" s="2"/>
+      <c r="Z81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP84">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9634,7 +12191,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4243,10 +4243,10 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>
@@ -9679,10 +9679,10 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>83</v>
@@ -11375,10 +11375,10 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,6 +748,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="86290005"/&gt;
   &lt;display value="Respiratory rate (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1557,6 +1558,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="248582003"/&gt;
   &lt;display value="Rhythm of respiration (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1621,6 +1623,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="52653008"/&gt;
   &lt;display value="Respiratory sounds (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3839,7 +3839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -662,6 +662,16 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
+    &lt;code value="86290005"/&gt;
+    &lt;display value="Respiratory rate (observable entity)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -689,7 +699,465 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -708,547 +1176,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.code.extension</t>
+    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="86290005"/&gt;
-  &lt;display value="Respiratory rate (observable entity)"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1448,6 +1382,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1538,36 +1475,14 @@
     <t>Observation.component:respiratory-rhythm.code</t>
   </si>
   <si>
-    <t>Observation.component:respiratory-rhythm.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:respiratory-rhythm.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:respiratory-rhythm.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="248582003"/&gt;
-  &lt;display value="Rhythm of respiration (observable entity)"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:respiratory-rhythm.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
+    &lt;code value="248582003"/&gt;
+    &lt;display value="Rhythm of respiration (observable entity)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:respiratory-rhythm.value[x]</t>
@@ -1612,24 +1527,14 @@
     <t>Observation.component:breath-sounds.code</t>
   </si>
   <si>
-    <t>Observation.component:breath-sounds.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:breath-sounds.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:breath-sounds.code.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="52653008"/&gt;
-  &lt;display value="Respiratory sounds (observable entity)"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:breath-sounds.code.text</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
+    &lt;code value="52653008"/&gt;
+    &lt;display value="Respiratory sounds (observable entity)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:breath-sounds.value[x]</t>
@@ -1975,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP84"/>
+  <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2012,7 +1917,7 @@
     <col min="26" max="26" width="56.71484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3889,7 +3794,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3904,13 +3809,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3943,30 +3848,30 @@
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3974,31 +3879,35 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -4046,7 +3955,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4058,22 +3967,22 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4081,14 +3990,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4104,19 +4013,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4154,16 +4063,16 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>227</v>
@@ -4178,7 +4087,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4187,28 +4096,28 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4218,7 +4127,7 @@
         <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
@@ -4227,19 +4136,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4249,7 +4158,7 @@
         <v>83</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>
@@ -4288,13 +4197,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4303,34 +4212,34 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4340,7 +4249,7 @@
         <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
@@ -4349,19 +4258,19 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4410,7 +4319,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4425,30 +4334,30 @@
         <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4456,13 +4365,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
@@ -4471,20 +4380,18 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4532,7 +4439,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4547,19 +4454,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4567,10 +4474,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4593,18 +4500,18 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
@@ -4652,7 +4559,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4667,44 +4574,44 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
@@ -4713,19 +4620,19 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4762,19 +4669,17 @@
         <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4783,44 +4688,46 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
@@ -4835,19 +4742,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4896,7 +4803,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4905,36 +4812,36 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4954,21 +4861,23 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4992,13 +4901,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5016,7 +4925,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5025,7 +4934,7 @@
         <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>106</v>
@@ -5037,13 +4946,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5051,14 +4960,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5074,20 +4983,22 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5112,13 +5023,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5136,7 +5047,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5151,30 +5062,30 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5182,10 +5093,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5194,22 +5105,22 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5246,26 +5157,28 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5274,65 +5187,61 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5356,13 +5265,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5380,7 +5289,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5389,7 +5298,7 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
@@ -5398,27 +5307,27 @@
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5444,16 +5353,16 @@
         <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5478,13 +5387,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5502,7 +5411,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5511,7 +5420,7 @@
         <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5523,10 +5432,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5537,21 +5446,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -5563,20 +5472,18 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5600,13 +5507,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5624,13 +5531,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5642,27 +5549,27 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5673,7 +5580,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>83</v>
@@ -5685,20 +5592,18 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5746,13 +5651,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5764,27 +5669,27 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5795,7 +5700,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5807,18 +5712,20 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5842,13 +5749,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5866,45 +5773,45 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>352</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>355</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5927,20 +5834,16 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5964,13 +5867,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5988,7 +5891,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6000,7 +5903,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6009,10 +5912,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6023,21 +5926,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6049,16 +5952,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>369</v>
+        <v>143</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6108,79 +6011,81 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6228,45 +6133,45 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>382</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6277,7 +6182,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6289,20 +6194,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6350,31 +6251,31 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6385,10 +6286,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6411,13 +6312,13 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>217</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>385</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
+        <v>386</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6468,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6477,10 +6378,10 @@
         <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
@@ -6489,10 +6390,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6503,21 +6404,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6529,18 +6430,20 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>390</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6564,13 +6467,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6588,31 +6491,31 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6623,14 +6526,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6643,25 +6546,25 @@
         <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6686,13 +6589,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6710,7 +6613,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6722,19 +6625,19 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6745,10 +6648,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6771,16 +6674,18 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6828,7 +6733,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6837,7 +6742,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6849,10 +6754,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6863,10 +6768,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6889,13 +6794,13 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6946,7 +6851,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6955,7 +6860,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6967,10 +6872,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6981,10 +6886,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6995,7 +6900,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7004,23 +6909,21 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7044,13 +6947,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7068,13 +6971,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -7086,13 +6989,13 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7103,10 +7006,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7126,23 +7029,21 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>192</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7166,13 +7067,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7190,7 +7091,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7208,13 +7109,13 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7225,10 +7126,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7239,19 +7140,19 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>428</v>
@@ -7259,9 +7160,11 @@
       <c r="M44" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7298,25 +7201,23 @@
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
@@ -7331,10 +7232,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7345,10 +7246,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7371,13 +7272,13 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7428,7 +7329,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7440,7 +7341,7 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7449,10 +7350,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7463,14 +7364,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7486,19 +7387,19 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>437</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7548,7 +7449,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7560,7 +7461,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7569,10 +7470,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7583,14 +7484,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7603,24 +7504,26 @@
         <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7668,7 +7571,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7680,7 +7583,7 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7689,10 +7592,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>448</v>
+        <v>137</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7703,10 +7606,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7714,13 +7617,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
@@ -7729,19 +7632,19 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7766,35 +7669,37 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
@@ -7806,16 +7711,16 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -7823,10 +7728,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7846,19 +7751,23 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7906,7 +7815,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7918,44 +7827,44 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7967,18 +7876,20 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8002,13 +7913,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8026,19 +7937,19 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8047,10 +7958,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8061,14 +7972,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>395</v>
+        <v>298</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8081,25 +7992,25 @@
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>300</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8124,13 +8035,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8148,7 +8059,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8160,33 +8071,33 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8194,10 +8105,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8206,22 +8117,22 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8246,13 +8157,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8270,13 +8181,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8288,16 +8199,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>213</v>
+        <v>362</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8305,12 +8216,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8331,19 +8244,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8392,13 +8305,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8410,27 +8323,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8453,20 +8366,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8490,13 +8399,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8514,7 +8423,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8523,10 +8432,10 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -8535,10 +8444,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8549,14 +8458,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8575,20 +8484,18 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8612,13 +8519,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8636,7 +8543,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8648,37 +8555,37 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8691,25 +8598,25 @@
         <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>477</v>
+        <v>375</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8758,7 +8665,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>475</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8770,7 +8677,7 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8779,10 +8686,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>391</v>
+        <v>137</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8793,20 +8700,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>94</v>
@@ -8821,19 +8726,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8843,7 +8748,7 @@
         <v>83</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>83</v>
@@ -8858,13 +8763,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8882,13 +8787,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -8900,16 +8805,16 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -8917,10 +8822,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8928,7 +8833,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>94</v>
@@ -8940,19 +8845,23 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -8988,19 +8897,17 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9012,67 +8919,71 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9096,13 +9007,11 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9120,80 +9029,80 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>143</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9218,13 +9127,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9242,19 +9151,19 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9263,10 +9172,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9277,21 +9186,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9300,22 +9209,22 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>299</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>463</v>
+        <v>301</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9340,13 +9249,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9364,13 +9273,13 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
@@ -9382,27 +9291,27 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>464</v>
+        <v>305</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9413,7 +9322,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9425,16 +9334,20 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9482,19 +9395,19 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>220</v>
+        <v>454</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9503,10 +9416,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9517,21 +9430,23 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>83</v>
@@ -9540,21 +9455,23 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9590,19 +9507,19 @@
         <v>83</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>227</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9614,7 +9531,7 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -9623,10 +9540,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9637,10 +9554,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9660,23 +9577,19 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9685,7 +9598,7 @@
         <v>83</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>83</v>
@@ -9724,19 +9637,19 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>235</v>
+        <v>367</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -9745,10 +9658,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9759,21 +9672,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -9782,23 +9695,21 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -9846,19 +9757,19 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -9867,10 +9778,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9881,45 +9792,45 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>467</v>
+        <v>374</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9956,59 +9867,59 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10020,7 +9931,7 @@
         <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>83</v>
@@ -10032,16 +9943,16 @@
         <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10051,7 +9962,7 @@
         <v>83</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>83</v>
@@ -10066,11 +9977,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>496</v>
+        <v>210</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10088,10 +10001,10 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>94</v>
@@ -10106,27 +10019,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10134,7 +10047,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>94</v>
@@ -10146,22 +10059,22 @@
         <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
+        <v>275</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10186,31 +10099,29 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10219,7 +10130,7 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10228,62 +10139,64 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10308,13 +10221,11 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10332,13 +10243,13 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
@@ -10350,27 +10261,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10381,7 +10292,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10393,19 +10304,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10430,13 +10341,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10454,16 +10365,16 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>106</v>
@@ -10475,10 +10386,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10489,23 +10400,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -10514,22 +10423,22 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>452</v>
+        <v>301</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>453</v>
+        <v>302</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10554,13 +10463,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10578,7 +10487,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10596,27 +10505,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>455</v>
+        <v>306</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10627,7 +10536,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -10639,16 +10548,20 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -10696,19 +10609,19 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>220</v>
+        <v>454</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -10717,1474 +10630,20 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y81" s="2"/>
-      <c r="Z81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP84" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP84">
+  <autoFilter ref="A1:AP72">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12194,7 +10653,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-respiratory-rate.xlsx
+++ b/StructureDefinition-rs-observation-respiratory-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
